--- a/Assets/Docs/Design/Eternal War GDC.xlsx
+++ b/Assets/Docs/Design/Eternal War GDC.xlsx
@@ -8,16 +8,53 @@
   </bookViews>
   <sheets>
     <sheet name="Core system" sheetId="3" r:id="rId1"/>
-    <sheet name="flag" sheetId="1" r:id="rId2"/>
-    <sheet name="buff" sheetId="2" r:id="rId3"/>
+    <sheet name="Flag" sheetId="1" r:id="rId2"/>
+    <sheet name="Buff" sheetId="2" r:id="rId3"/>
     <sheet name="Settle" sheetId="5" r:id="rId4"/>
+    <sheet name="Stats" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+这还漏了这个参数</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="141">
   <si>
     <t>Name</t>
   </si>
@@ -34,9 +71,6 @@
     <t>createBuffOnTarget</t>
   </si>
   <si>
-    <t xml:space="preserve"> SkillEffectTypes</t>
-  </si>
-  <si>
     <t>HP_Cur</t>
   </si>
   <si>
@@ -49,149 +83,121 @@
     <t>HP_Max</t>
   </si>
   <si>
+    <t xml:space="preserve">support negative and positive value , directly add or subtract </t>
+  </si>
+  <si>
+    <t>-/+</t>
+  </si>
+  <si>
+    <t>only surpport bool  value</t>
+  </si>
+  <si>
+    <t>all the opponent</t>
+  </si>
+  <si>
+    <t>all the camps</t>
+  </si>
+  <si>
+    <t>only self camp</t>
+  </si>
+  <si>
+    <t>FinishStatus</t>
+  </si>
+  <si>
+    <t>false/true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the first heroes enter in trigger range in the same step will activate the trigger </t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>PlayerAction</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>moving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">record every heroes who activate the trigger ,then destroy the trigger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if the trigger is repeated, it will activate buff repeatedly </t>
+  </si>
+  <si>
+    <t>Implementing-Logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consider every step as a buff-activation step, until the trigger doesn't exist </t>
+  </si>
+  <si>
+    <t xml:space="preserve">consider every step as a trigger-activation step, until the trigger doesn't exist </t>
+  </si>
+  <si>
+    <t>ValueMeaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all these direction base on the first player 's view ,all the players keep look bottom to top </t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> isTheFirstOneTriggerThenDispear</t>
+  </si>
+  <si>
+    <t>Stun</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>叠加效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅叠加值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>movingPoint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅叠加值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP_Max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>AP_Max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">support negative and positive value , directly add or subtract </t>
-  </si>
-  <si>
-    <t>-/+</t>
-  </si>
-  <si>
-    <t>only surpport bool  value</t>
-  </si>
-  <si>
-    <t>isSlowed</t>
-  </si>
-  <si>
-    <t>isStun</t>
-  </si>
-  <si>
-    <t>isHPLowerThan4</t>
-  </si>
-  <si>
-    <t>camp</t>
-  </si>
-  <si>
-    <t>all the opponent</t>
-  </si>
-  <si>
-    <t>all the camps</t>
-  </si>
-  <si>
-    <t>only self camp</t>
-  </si>
-  <si>
-    <t>FinishStatus</t>
-  </si>
-  <si>
-    <t>SkillTriggerType</t>
-  </si>
-  <si>
-    <t>false/true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the first heroes enter in trigger range in the same step will activate the trigger </t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>up</t>
-  </si>
-  <si>
-    <t>down</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>PlayerAction</t>
-  </si>
-  <si>
-    <t>skill</t>
-  </si>
-  <si>
-    <t>moving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">record every heroes who activate the trigger ,then destroy the trigger </t>
-  </si>
-  <si>
-    <t xml:space="preserve">if the trigger is repeated, it will activate buff repeatedly </t>
-  </si>
-  <si>
-    <t>Implementing-Logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consider every step as a buff-activation step, until the trigger doesn't exist </t>
-  </si>
-  <si>
-    <t xml:space="preserve">consider every step as a trigger-activation step, until the trigger doesn't exist </t>
-  </si>
-  <si>
-    <t>ValueMeaning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all these direction base on the first player 's view ,all the players keep look bottom to top </t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> isTheFirstOneTriggerThenDispear</t>
-  </si>
-  <si>
-    <t>isRepeatedByStep</t>
-  </si>
-  <si>
-    <t>buff</t>
-  </si>
-  <si>
-    <t>Stun</t>
-  </si>
-  <si>
-    <t>flag</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>叠加效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅叠加值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>movingPoint</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅叠加值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP_Max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP_Max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -203,21 +209,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>在哪里初始化英雄的归属Player?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>还需要在buff失效后恢复状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnableEffectTypes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合与步骤数的逻辑</t>
-  </si>
-  <si>
     <t>类别</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -286,20 +277,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>击杀对方所有单位，则己方胜利</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>双方玩家同时开始设置自己控制存在场上的所有英雄的行动序列，这个过程类似于在动画时间轴上添加关键帧。英雄的移动和技能释放会消耗AP与步骤数（就是被分块化的时间）。等双方都确认部署完毕则进入下一阶段；
-值得注意的是部署阶段，时间轴的长度取决于双方玩家所持的最大AP值，每个值对应一个步骤；玩家可以在时间轴的任意位置部署任意行动，但是行动的发生都不能超出时间轴；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>行动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄释放技能或者移动被称为行动，使用行动消耗AP与步骤（时间）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -316,16 +294,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>行动力；
-每个玩家控制的所有英雄共用一个AP池；
-英雄的每个行动都会消耗AP；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>步骤（Step）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>单位（Unit）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -334,13 +302,398 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>水晶（Cristal）</t>
+    <t>召唤物</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果结算优先级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">直接伤害：降低敌方HP
+眩晕：
+减速：
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义：
+某些英雄的技能会在战场创造新单位，被称为该英雄的召唤物；本质上召唤物属于英雄类，但是不会被玩家直接控制；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为技能效果的直接载体，buff会被挂载到英雄身上，在时间条件、和buff生效条件满足之后触发其效果；有些Buff则会在时间上立即生效，比如直接攻击的buff，造成敌对势力单位HP降低；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff
+影响的属性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶（Crystal）</t>
+  </si>
+  <si>
+    <t>1.基地是用于储存水晶的，如果被攻击，会直接会给攻击方以相应攻击力的水晶
+2.基地中若如水晶，则攻击它并不会获得水晶
+3.攻击己方水晶无效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step（Step）</t>
+  </si>
+  <si>
+    <t>英雄释放技能或者移动被称为行动，使用行动消耗AP与Step（时间）</t>
+  </si>
+  <si>
+    <t>双方玩家同时开始设置自己控制存在场上的所有英雄的行动序列，这个过程类似于在动画时间轴上添加关键帧。英雄的移动和技能释放会消耗AP与Step数（就是被分块化的时间）。等双方都确认部署完毕则进入下一阶段；
+值得注意的是部署阶段，时间轴的长度取决于双方玩家所持的最大AP值，每个值对应一个Step；玩家可以在时间轴的任意位置部署任意行动，但是行动的发生都不能超出时间轴；</t>
+  </si>
+  <si>
+    <t>WinType
+胜利条件枚举</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP_Max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>camp_opponent</t>
+  </si>
+  <si>
+    <t>camp_self</t>
+  </si>
+  <si>
+    <t>isSlowed_false</t>
+  </si>
+  <si>
+    <t>isSlowed_true</t>
+  </si>
+  <si>
+    <t>isStun_true</t>
+  </si>
+  <si>
+    <t>isStun_false</t>
+  </si>
+  <si>
+    <t>isHPLowerThan4_true</t>
+  </si>
+  <si>
+    <t>isHPLowerThan4_false</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SkillEffectTypes
+决定了buff影响的属性类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnableEffectTypes
+决定了trigger或者buff是否生效的判断条件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRepeated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTrigger
+这两个属性影响到trigger的运作方式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff
+这些属性影响到了buff的运作方式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlllKilled</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnoughCrysital</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>All the opposite heros been killed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动力:
+1.每个玩家控制的所有英雄共用一个AP池；
+2.英雄的每个行动都会消耗AP；
+3.玩家中，所持AP的最大值=下一个部署阶段时间窗的step数；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置阶段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于游戏的机制是对战的敌我双方同时部署，同时结算，所以不存在玩家之间的轮流行动。在游戏开始时也不存在起始玩家，而是双方玩家同时部署，然后同时进入结算。游戏的回合就在 部署》结算》重置 这3个阶段不停循环，直到某一方胜利；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero_Stats</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MovingPoint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MovingPoint_Max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>isStuned</t>
+  </si>
+  <si>
+    <t>isSilenced</t>
+  </si>
+  <si>
+    <t>isSlowed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄被减速的标志，只要英雄当前移动力小于其最大移动力时，英雄处于减速状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄是否处于被沉默的状态标志，沉默时英雄不能释放任何主动技能（可以移动）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶的掉落规则：需要规避长时间平局，并且适当增加游戏的目标性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP点的掉落规则：添加游戏的策略性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在结算阶段，击杀对方所有单位，则己方胜利</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始设置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.设置英雄出生位置：玩家逐一选择三个英雄分布在允许的出生位置（这个位置是每个地图预先配置好的）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些值获得固定提升：
+1.双方玩家的AP_Max++;
+在重置阶段，恢复一些值到初始值：
+1.双方玩家恢复自己的当前AP到AP_Max；
+2.所有英雄的待冷却技能的CD-1；
+3.所有依据回合存在的单位或者是Trigger\按回合持续的Buff剩余的存在时间-1；
+4.重置所有过期的特殊状态到正常状态
+生成一个AP可拾取物，到设置的位置；如果设置的位置此时已经被任意单位占据，则不会再生成这个拾取物；
+生成一个水晶，到设置的位置；如果设置的位置此时已经被任意单位占据，则不会再生成这个拾取物；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级分类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础英雄属性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>被眩晕的英雄将直接跳过本回合的部署阶段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄异常状态标志位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>基础：
+唯一一类可以直接由玩家操控的单位，用于释放主动技能；
+1.英雄属性：（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详见Stats页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）
+2.英雄的异常状态：处于异常状态的英雄，会影响英雄的一些属性，被屏蔽一些功能。比如被沉默的英雄不能释放攻击技能；（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详见Buff页：Hero:英雄异常状态标志位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>整个游戏还是基于回合制的；
+在部署阶段，时间轴被切分成了若干个Step，每个Step也就是游戏中最小的时间单位（类似于帧）；（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详见本来页：部署阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>依据双方玩家对每个英雄的行动部署，按Step结算每一个行动的影响。这些影响里面包含了伤害结算、水晶的持有者/持有数量改变、水晶掉落、游戏结束判定；
+但是里面有一个效果结算顺序（效果细分可以分很多种，还需要考虑到特殊效果）的问题，（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详细参见Settle页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）；</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
       <t>作为胜利条件：
-某一玩家的所有单位所持有的水晶数合作为胜利条件之一（详见：胜利条件）；
+某一玩家的所有单位所持有的水晶数合作为胜利条件之一（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详见本页：胜利条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）；
 击杀回报：
 1.击杀英雄时会立即获得固定数量的水晶回报，增加固定数额水晶：击杀回报水晶（</t>
     </r>
@@ -352,7 +705,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>Cristal_Kill</t>
+      <t>Crystal_Kill</t>
     </r>
     <r>
       <rPr>
@@ -362,7 +715,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>，这是一个游戏全局统一值）; 注意这里的达成击杀英雄单位可能不是唯一的，例如：两个英雄同时在一个步骤内对同一英雄造成伤害而形成击杀，这种情况两个英雄都能获得击杀回报；任何英雄的召唤物或者技能造成的伤害都视作是该英雄造成的伤害；
+      <t>，这是一个游戏全局统一值）; 注意这里的达成击杀英雄单位可能不是唯一的，例如：两个英雄同时在一个Step内对同一英雄造成伤害而形成击杀，这种情况两个英雄都能获得击杀回报；任何英雄的召唤物或者技能造成的伤害都视作是该英雄造成的伤害；
 2.被击杀的英雄还会在原地掉落固定数额的水晶（</t>
     </r>
     <r>
@@ -373,7 +726,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>Cristal_Be_Killed</t>
+      <t>Crystal_Be_Killed</t>
     </r>
     <r>
       <rPr>
@@ -386,32 +739,56 @@
       <t>，这个值是每个英雄都不同）；
 3.被击杀的英雄会在原地掉落他当前所持有的全部水晶；
 水晶拾取：
-每个英雄都有拾取水晶的技能，这个技能消耗步骤数，不消耗AP；
+每个英雄都有拾取水晶的技能，这个技能消耗Step数，不消耗AP；
 水晶储存：
 水晶可以因为一些的技能被储存至我方水晶或召唤物身上，以使我方持有的水晶更安全；</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>召唤物</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础：
-唯一一类可以直接由玩家操控的单位，用于释放主动技能；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于游戏的机制是对战的敌我双方同时部署，同时结算，所以不存在玩家之间的轮流行动。在游戏开始时也不存在起始玩家，而是双方玩家同时部署，然后同时进入结算。游戏的回合就在部署和结算这两个阶段不停循环，直到某一方胜利；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>己方所有单位持有的水晶数量总和到达：胜利所需水晶数（</t>
+      <t>基础技能：（每个英雄都有的一类技能）
+1.四方向移动，每次移动一格，每次消耗1Step1AP；CD0; （不会被沉默影响）
+2.存储/拾取水晶，每次消耗2Step1AP；CD1; （不会被沉默影响）
+3.普通攻击，耗费一个Step2AP；CD0;（这一条会因英雄不同而不同）
+英雄技能：
+1.按效果分类：（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>具体技能效果结算参照Settle页，技能效果参照本页：技能效果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）
+①伤害②控制③位移
+2.消耗：
+①AP②Step③CD
+技能的CD按照回合来计算，当结算阶段结束后使当前技能剩余CD-1。当刚使用完技能时其剩余CD时间刷新为其最大CD时间
+3.技能的时序拆分
+①前摇②生效③后摇
+前摇阶段是技能生效的准备，其后是真正发挥效果的阶段，最后阶段是收招阶段。①③阶段都是使用技能时的脆弱时间，不同的技能不同阶段持续的step数不同；
+4.范围：技能的范围分触发器（Trigger）范围和效果（Effect）范围，这些范围都在技能配置里面直接配置，是一个二维的数组；
+5.触发条件：这个条件决定了接下来的阶段是否使技能生效；
+这里分两个触发条件（因为本质上技能释放的时间和技能效果生效的时间很可能不是一个时间，因此要分两阶段）：一个是触发器的，决定了此触发器对应的buff效果是否可能会挂载到某英雄身上；另一个是buff的触发条件，这决定了被挂载了这个buff英雄是否会在此刻受到这个buff的影响；</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在重置阶段时，己方所有单位持有的水晶数量总和到达：胜利所需水晶数（</t>
     </r>
     <r>
       <rPr>
@@ -421,16 +798,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>Cristal_Win</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，这是个全局设置</t>
+      <t>Crystal_Win</t>
     </r>
     <r>
       <rPr>
@@ -440,82 +808,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>）</t>
+      <t>，这是个全局设置），且超过对方水晶数时，己方胜利；</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>整个游戏还是基于回合制的；
-在部署阶段，时间轴被切分成了若干个步骤，每个步骤也就是游戏中最小的时间单位（类似于帧）；（详见：部署阶段）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果结算优先级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>依据双方玩家对每个英雄的行动部署，按步骤结算每一个行动的影响。这些影响里面包含了伤害结算、水晶的持有者/持有数量改变、水晶掉落、游戏结束判定；
-但是里面有一个效果结算顺序（效果细分可以分很多种，还需要考虑到特殊效果）的问题，（详细参见Settle页）；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">直接伤害：降低敌方HP
-眩晕：
-减速：
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义：
-某些英雄的技能会在战场创造新单位，被称为该英雄的召唤物；本质上召唤物属于英雄类，但是不会被玩家直接控制；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.基地是用于储存水晶的，如果被攻击，会直接会给攻击方以相应攻击力的水晶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时达成：冲突</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础技能：（每个英雄都有的一类技能）
-1.四方向移动，每次移动一格，每次消耗1步骤1AP；CD0;
-2.存储/拾取水晶，每次消耗2步骤1AP；CD1;
-3.普通攻击，耗费一个步骤2AP；CD0;（这一条会因英雄不同而不同）
-英雄技能：
-1.按效果分类：（具体技能效果结算参照Settle页，技能效果参照：技能效果）
-①伤害②控制③位移
-2.消耗：
-①AP②step③CD
-技能的CD按照回合来计算，当结算阶段结束后使当前技能剩余CD-1。当刚使用完技能时其剩余CD时间刷新为其最大CD时间
-3.技能的时序拆分
-①前摇②生效③后摇
-前摇阶段是技能生效的准备，其后是真正发挥效果的阶段，最后阶段是收招阶段。①③阶段都是使用技能时的脆弱时间，不同的技能不同阶段持续的step数不同；
-4.范围：技能的范围分触发器（Trigger）范围和效果（Effect）范围，这些范围都在技能配置里面直接配置，是一个二维的数组；
-5.触发条件：这个条件决定了接下来的阶段是否使技能生效；
-这里分两个触发条件（因为本质上技能释放的时间和技能效果生效的时间很可能不是一个时间，因此要分两阶段）：一个是触发器的，决定了此触发器对应的buff效果是否可能会挂载到某英雄身上；另一个是buff的触发条件，这决定了被挂载了这个buff英雄是否会在此刻受到这个buff的影响；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.如果两条件在游戏的一个步骤中由一个玩家同时达成，条件2优先；
-2.其余情况下，任意条件达成则游戏结束，达成方胜利；</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -523,7 +817,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,19 +887,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color rgb="FF00B0F0"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,6 +940,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -644,7 +960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -673,15 +989,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -691,23 +1028,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1014,231 +1351,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="9"/>
     <col min="3" max="3" width="16.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="81.88671875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="81.88671875" style="15" customWidth="1"/>
     <col min="5" max="5" width="68" style="9" customWidth="1"/>
     <col min="6" max="8" width="8.21875" style="9" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="16" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="13" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="13" customFormat="1" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="18"/>
+      <c r="C3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="218.4" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="13" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="B5" s="18"/>
+      <c r="C5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+      <c r="C6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+      <c r="C8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+      <c r="C9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" ht="379.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="18"/>
+    </row>
+    <row r="19" spans="2:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="C20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="14" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="18"/>
+      <c r="C22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="18"/>
+      <c r="C23" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="D23" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="18"/>
+      <c r="C24" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="16" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="16" customFormat="1" ht="249.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
-      <c r="C5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
-      <c r="C6" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
-      <c r="C8" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-    </row>
-    <row r="15" spans="1:8" ht="379.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
-      <c r="C16" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="17"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-    </row>
-    <row r="19" spans="2:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
-      <c r="C23" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="17"/>
-      <c r="C24" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>102</v>
+      <c r="D24" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="222.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="18"/>
+      <c r="C25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="15" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="B21:B25"/>
     <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B22:B24"/>
     <mergeCell ref="B2:B14"/>
-    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1247,14 +1609,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17:B18"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1273,76 +1635,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>11</v>
+      <c r="D2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="7" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
@@ -1350,42 +1712,42 @@
         <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>11</v>
+      <c r="D7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="19"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3">
@@ -1393,375 +1755,513 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>17</v>
+      <c r="A10" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="8">
-        <v>1</v>
+      <c r="A11" s="21"/>
+      <c r="B11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="11">
+        <v>2</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="8">
-        <v>2</v>
+      <c r="A12" s="21"/>
+      <c r="B12" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="11">
+        <v>3</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="8">
-        <v>3</v>
+      <c r="A13" s="21"/>
+      <c r="B13" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="11">
+        <v>4</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="8">
-        <v>4</v>
+      <c r="A14" s="21"/>
+      <c r="B14" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="11">
+        <v>5</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="8">
-        <v>5</v>
+      <c r="A15" s="21"/>
+      <c r="B15" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="11">
+        <v>6</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="8">
-        <v>6</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="11">
+        <v>7</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="8">
-        <v>7</v>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="11">
+        <v>8</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="8">
-        <v>8</v>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11">
+        <v>9</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="7">
+      <c r="C30" s="7">
+        <v>3</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="D32" s="4"/>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="C33" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="7">
+      <c r="D33" s="4"/>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="B36" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="7">
         <v>0</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="7">
+      <c r="D38" s="4"/>
+      <c r="E38" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="7">
-        <v>2</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="7">
-        <v>3</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="7">
-        <v>1</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="24"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="24"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="24"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="24"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="24"/>
+    </row>
+    <row r="49" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="24"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="24"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="24"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="24"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="24"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="24"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="24"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A30:A31"/>
+  <mergeCells count="14">
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A42:A56"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A10:A20"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="11"/>
-    <col min="2" max="2" width="22.44140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="32.5546875" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="8.88671875" style="10"/>
+    <col min="2" max="2" width="22.44140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="11" t="s">
-        <v>48</v>
+    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="7" t="s">
+      <c r="C4" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>52</v>
+      <c r="C5" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="14" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+    </row>
+    <row r="11" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+    </row>
+    <row r="12" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+    </row>
+    <row r="13" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+    </row>
+    <row r="17" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+    </row>
+    <row r="18" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+    </row>
+    <row r="19" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+    </row>
+    <row r="20" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+    </row>
+    <row r="21" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+    </row>
+    <row r="22" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+    </row>
+    <row r="23" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+    </row>
+    <row r="24" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A2:A24"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1774,7 +2274,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1783,17 +2283,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="19"/>
+      <c r="A1" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1801,7 +2301,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1809,7 +2309,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1854,4 +2354,149 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="14"/>
+    <col min="3" max="3" width="13.5546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="14"/>
+    <col min="5" max="5" width="83" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B9"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Docs/Design/Eternal War GDC.xlsx
+++ b/Assets/Docs/Design/Eternal War GDC.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Settle" sheetId="5" r:id="rId4"/>
     <sheet name="Stats" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="160">
   <si>
     <t>Name</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Implementing-Logic</t>
   </si>
   <si>
-    <t xml:space="preserve">consider every step as a buff-activation step, until the trigger doesn't exist </t>
-  </si>
-  <si>
     <t xml:space="preserve">consider every step as a trigger-activation step, until the trigger doesn't exist </t>
   </si>
   <si>
@@ -182,10 +179,6 @@
   </si>
   <si>
     <t>无效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>movingPoint</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -311,14 +304,6 @@
   </si>
   <si>
     <t>位移</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -358,12 +343,6 @@
     <t>水晶（Crystal）</t>
   </si>
   <si>
-    <t>1.基地是用于储存水晶的，如果被攻击，会直接会给攻击方以相应攻击力的水晶
-2.基地中若如水晶，则攻击它并不会获得水晶
-3.攻击己方水晶无效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -380,10 +359,6 @@
   </si>
   <si>
     <t>英雄释放技能或者移动被称为行动，使用行动消耗AP与Step（时间）</t>
-  </si>
-  <si>
-    <t>双方玩家同时开始设置自己控制存在场上的所有英雄的行动序列，这个过程类似于在动画时间轴上添加关键帧。英雄的移动和技能释放会消耗AP与Step数（就是被分块化的时间）。等双方都确认部署完毕则进入下一阶段；
-值得注意的是部署阶段，时间轴的长度取决于双方玩家所持的最大AP值，每个值对应一个Step；玩家可以在时间轴的任意位置部署任意行动，但是行动的发生都不能超出时间轴；</t>
   </si>
   <si>
     <t>WinType
@@ -515,14 +490,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>水晶的掉落规则：需要规避长时间平局，并且适当增加游戏的目标性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP点的掉落规则：添加游戏的策略性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>在结算阶段，击杀对方所有单位，则己方胜利</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -532,18 +499,6 @@
   </si>
   <si>
     <t>1.设置英雄出生位置：玩家逐一选择三个英雄分布在允许的出生位置（这个位置是每个地图预先配置好的）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一些值获得固定提升：
-1.双方玩家的AP_Max++;
-在重置阶段，恢复一些值到初始值：
-1.双方玩家恢复自己的当前AP到AP_Max；
-2.所有英雄的待冷却技能的CD-1；
-3.所有依据回合存在的单位或者是Trigger\按回合持续的Buff剩余的存在时间-1；
-4.重置所有过期的特殊状态到正常状态
-生成一个AP可拾取物，到设置的位置；如果设置的位置此时已经被任意单位占据，则不会再生成这个拾取物；
-生成一个水晶，到设置的位置；如果设置的位置此时已经被任意单位占据，则不会再生成这个拾取物；</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -668,6 +623,111 @@
       </rPr>
       <t>）；</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>基础技能：（每个英雄都有的一类技能）
+1.四方向移动，每次移动一格，每次消耗1Step1AP；CD0; （不会被沉默影响）
+2.存储/拾取水晶，每次消耗2Step1AP；CD1; （不会被沉默影响）
+3.普通攻击，耗费一个Step2AP；CD0;（这一条会因英雄不同而不同）
+英雄技能：
+1.按效果分类：（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>具体技能效果结算参照Settle页，技能效果参照本页：技能效果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）
+①伤害②控制③位移
+2.消耗：
+①AP②Step③CD
+技能的CD按照回合来计算，当结算阶段结束后使当前技能剩余CD-1。当刚使用完技能时其剩余CD时间刷新为其最大CD时间
+3.技能的时序拆分
+①前摇②生效③后摇
+前摇阶段是技能生效的准备，其后是真正发挥效果的阶段，最后阶段是收招阶段。①③阶段都是使用技能时的脆弱时间，不同的技能不同阶段持续的step数不同；
+4.范围：技能的范围分触发器（Trigger）范围和效果（Effect）范围，这些范围都在技能配置里面直接配置，是一个二维的数组；
+5.触发条件：这个条件决定了接下来的阶段是否使技能生效；
+这里分两个触发条件（因为本质上技能释放的时间和技能效果生效的时间很可能不是一个时间，因此要分两阶段）：一个是触发器的，决定了此触发器对应的buff效果是否可能会挂载到某英雄身上；另一个是buff的触发条件，这决定了被挂载了这个buff英雄是否会在此刻受到这个buff的影响；</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在重置阶段时，己方所有单位持有的水晶数量总和到达：胜利所需水晶数（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Crystal_Win</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，这是个全局设置），且超过对方水晶数时，己方胜利；</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在其他单位身上创生一个Buff，可以联想到闪电链，或者是瘟疫传递</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MovingPoint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否眩晕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否沉默</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否减速</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些值获得固定提升：
+1.双方玩家的AP_Max++;
+在重置阶段，恢复一些值到初始值：
+1.双方玩家恢复自己的当前AP到AP_Max；
+2.所有英雄的待冷却技能的CD-1；
+3.所有依据回合存在的单位或者是Trigger\按回合持续的Buff剩余的存在时间-1；
+4.重置所有过期的特殊状态到正常状态
+可拾取物品刷新：
+生成一个AP可拾取物，拾取的玩家获得AP_Max的增加，到设置的位置；如果设置的位置此时已经被任意单位占据，则不会再生成这个拾取物；
+生成一个水晶，到设置的位置；如果设置的位置此时已经被任意单位占据，则不会再生成这个拾取物；
+英雄复活：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -746,23 +806,98 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>不同的地形决定了当英雄站立在上面时的不同交互；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>isVulnerable</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否易伤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>isProtected</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否庇护</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>处于被庇护的英雄，可以阻挡一次任意一次攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>处于易伤的英雄，每次受到伤害都会被附加一点格外伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉默</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>易伤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>庇护</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP_Max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.双方玩家同时开始设置自己控制存在场上的所有英雄的行动序列，这个过程类似于在动画时间轴上添加关键帧。英雄的移动和技能释放会消耗AP与Step数（就是被分块化的时间）。等双方都确认部署完毕则进入下一阶段；
+2.值得注意的是部署阶段，时间轴的长度取决于双方玩家所持的最大AP值，每个值对应一个Step；玩家可以在时间轴的任意位置部署任意行动，但是行动的发生都不能超出时间轴；
+3.部署阶段，任何行动消耗AP是直接被消耗；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP_Max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MovingPoint</t>
+  </si>
+  <si>
+    <t>MovingPoint_Max</t>
+  </si>
+  <si>
+    <t>是否中毒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>处于中毒状态的英雄：每回合扣一点HP，同时移除一层中毒标记，直到中毒标记消失，中毒效果消除</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPoisioned</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>基础技能：（每个英雄都有的一类技能）
-1.四方向移动，每次移动一格，每次消耗1Step1AP；CD0; （不会被沉默影响）
-2.存储/拾取水晶，每次消耗2Step1AP；CD1; （不会被沉默影响）
-3.普通攻击，耗费一个Step2AP；CD0;（这一条会因英雄不同而不同）
-英雄技能：
-1.按效果分类：（</t>
+      <t>1.基地是用于储存水晶的，如果成功</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF00B0F0"/>
+        <color rgb="FF7030A0"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>具体技能效果结算参照Settle页，技能效果参照本页：技能效果</t>
+      <t>受到伤害</t>
     </r>
     <r>
       <rPr>
@@ -772,43 +907,22 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>）
-①伤害②控制③位移
-2.消耗：
-①AP②Step③CD
-技能的CD按照回合来计算，当结算阶段结束后使当前技能剩余CD-1。当刚使用完技能时其剩余CD时间刷新为其最大CD时间
-3.技能的时序拆分
-①前摇②生效③后摇
-前摇阶段是技能生效的准备，其后是真正发挥效果的阶段，最后阶段是收招阶段。①③阶段都是使用技能时的脆弱时间，不同的技能不同阶段持续的step数不同；
-4.范围：技能的范围分触发器（Trigger）范围和效果（Effect）范围，这些范围都在技能配置里面直接配置，是一个二维的数组；
-5.触发条件：这个条件决定了接下来的阶段是否使技能生效；
-这里分两个触发条件（因为本质上技能释放的时间和技能效果生效的时间很可能不是一个时间，因此要分两阶段）：一个是触发器的，决定了此触发器对应的buff效果是否可能会挂载到某英雄身上；另一个是buff的触发条件，这决定了被挂载了这个buff英雄是否会在此刻受到这个buff的影响；</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在重置阶段时，己方所有单位持有的水晶数量总和到达：胜利所需水晶数（</t>
+      <t xml:space="preserve">，会直接会给攻击方以等于所受伤害数量的水晶
+2.基地中若无水晶，则攻击它并不会获得水晶
+3.攻击己方水晶无效
+</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF7030A0"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>Crystal_Win</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，这是个全局设置），且超过对方水晶数时，己方胜利；</t>
+      <t>4.基地庇护：
+①基地默认拥有一层庇护：抵挡一次伤害
+②当基地受到一次伤害后后，在下一个重置阶段，重新为自己生成一层庇护</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -817,7 +931,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -914,8 +1028,24 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -946,6 +1076,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -960,7 +1102,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1013,38 +1155,53 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1351,21 +1508,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="9"/>
     <col min="3" max="3" width="16.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="81.88671875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="91.21875" style="15" customWidth="1"/>
     <col min="5" max="5" width="68" style="9" customWidth="1"/>
     <col min="6" max="8" width="8.21875" style="9" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="9"/>
@@ -1373,226 +1530,222 @@
   <sheetData>
     <row r="1" spans="1:8" s="13" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="G1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="2" spans="1:8" s="13" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
-        <v>66</v>
+      <c r="B2" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="218.4" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="202.8" x14ac:dyDescent="0.25">
+      <c r="B4" s="25"/>
       <c r="C4" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="13" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
+    <row r="5" spans="1:8" s="13" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="B5" s="25"/>
       <c r="C5" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="25"/>
+      <c r="C6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
+      <c r="B7" s="25"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="25"/>
+      <c r="C9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="B10" s="25"/>
+      <c r="C10" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="9" t="s">
+      <c r="D10" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B11" s="25"/>
+      <c r="C11" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="183.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="25"/>
+      <c r="C12" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="25"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="25"/>
+    </row>
+    <row r="15" spans="1:8" ht="379.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" ht="379.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="D15" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="25"/>
+      <c r="C16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="25"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="25"/>
+    </row>
+    <row r="19" spans="2:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="25"/>
+      <c r="C20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="14" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
-      <c r="C16" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-    </row>
-    <row r="19" spans="2:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="C21" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="25"/>
+      <c r="C22" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="9" t="s">
+      <c r="D22" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="25"/>
+      <c r="C23" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" s="14" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="15" t="s">
+      <c r="D23" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="25"/>
+      <c r="C24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
-      <c r="C22" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
-      <c r="C23" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="222.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
+    <row r="25" spans="2:4" ht="281.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="25"/>
       <c r="C25" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D29" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="15" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1613,10 +1766,10 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1635,16 +1788,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
@@ -1654,8 +1807,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>101</v>
+      <c r="A2" s="26" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>5</v>
@@ -1663,48 +1816,48 @@
       <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="19"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="19"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="19"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
@@ -1719,47 +1872,51 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="19"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="28"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3">
         <v>7</v>
       </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>102</v>
+      <c r="A10" s="29" t="s">
+        <v>96</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1770,9 +1927,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C11" s="11">
         <v>2</v>
@@ -1783,9 +1940,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C12" s="11">
         <v>3</v>
@@ -1796,48 +1953,48 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C13" s="11">
         <v>4</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C14" s="11">
         <v>5</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C15" s="11">
         <v>6</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C16" s="11">
         <v>7</v>
@@ -1846,9 +2003,9 @@
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C17" s="11">
         <v>8</v>
@@ -1856,48 +2013,45 @@
       <c r="D17" s="4"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11">
         <v>9</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11">
         <v>10</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11">
         <v>11</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>35</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -1913,9 +2067,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
@@ -1927,23 +2081,23 @@
         <v>27</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="26"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="26"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="26"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
+      <c r="A26" s="26"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="26" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -1953,12 +2107,12 @@
         <v>0</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="19" t="s">
-        <v>32</v>
+      <c r="E27" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="7" t="s">
         <v>21</v>
       </c>
@@ -1966,10 +2120,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="19"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="7" t="s">
         <v>19</v>
       </c>
@@ -1977,10 +2131,10 @@
         <v>2</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="19"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="7" t="s">
         <v>22</v>
       </c>
@@ -1988,14 +2142,14 @@
         <v>3</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="19"/>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
+      <c r="A31" s="26"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -2005,10 +2159,10 @@
         <v>0</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="19"/>
+      <c r="E32" s="28"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="7" t="s">
         <v>24</v>
       </c>
@@ -2016,14 +2170,14 @@
         <v>1</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="19"/>
+      <c r="E33" s="28"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>105</v>
+      <c r="A35" s="26" t="s">
+        <v>99</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="12" t="s">
@@ -2031,9 +2185,9 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="12" t="s">
@@ -2041,24 +2195,24 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>106</v>
+      <c r="A38" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="25" t="s">
-        <v>107</v>
+      <c r="A39" s="26"/>
+      <c r="B39" s="18" t="s">
+        <v>101</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -2066,52 +2220,52 @@
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
-    </row>
-    <row r="49" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
+      <c r="A40" s="26"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="27"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="27"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="27"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="27"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="27"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="27"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="27"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
+      <c r="A50" s="27"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
+      <c r="A51" s="27"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
+      <c r="A52" s="27"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
+      <c r="A53" s="27"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
+      <c r="A54" s="27"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
+      <c r="A55" s="27"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
+      <c r="A56" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2142,7 +2296,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -2155,109 +2309,109 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="14" t="s">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="C4" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="14" t="s">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="14" t="s">
-        <v>45</v>
-      </c>
       <c r="C5" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="14" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="14" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="31"/>
     </row>
     <row r="9" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="31"/>
     </row>
     <row r="10" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="31"/>
     </row>
     <row r="11" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="A11" s="31"/>
     </row>
     <row r="12" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="31"/>
     </row>
     <row r="13" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="31"/>
     </row>
     <row r="14" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="31"/>
     </row>
     <row r="15" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="31"/>
     </row>
     <row r="16" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="31"/>
     </row>
     <row r="17" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="31"/>
     </row>
     <row r="18" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="31"/>
     </row>
     <row r="19" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
+      <c r="A19" s="31"/>
     </row>
     <row r="20" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+      <c r="A20" s="31"/>
     </row>
     <row r="21" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
+      <c r="A21" s="31"/>
     </row>
     <row r="22" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
+      <c r="A22" s="31"/>
     </row>
     <row r="23" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
+      <c r="A23" s="31"/>
     </row>
     <row r="24" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
+      <c r="A24" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2271,80 +2425,150 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="8.88671875" style="33"/>
     <col min="2" max="2" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="23"/>
+    <row r="1" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="33">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="33">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="33">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="33">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="33">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="33">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="33">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="33">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="33">
         <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2361,7 +2585,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2369,132 +2593,172 @@
     <col min="1" max="2" width="8.88671875" style="14"/>
     <col min="3" max="3" width="13.5546875" style="14" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="14"/>
-    <col min="5" max="5" width="83" style="14" customWidth="1"/>
+    <col min="5" max="5" width="83" style="15" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="B7" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="14" t="s">
+      <c r="D9" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="25"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="25"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A15"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B7:B13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Docs/Design/Eternal War GDC.xlsx
+++ b/Assets/Docs/Design/Eternal War GDC.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="164">
   <si>
     <t>Name</t>
   </si>
@@ -622,47 +622,6 @@
         <charset val="134"/>
       </rPr>
       <t>）；</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>基础技能：（每个英雄都有的一类技能）
-1.四方向移动，每次移动一格，每次消耗1Step1AP；CD0; （不会被沉默影响）
-2.存储/拾取水晶，每次消耗2Step1AP；CD1; （不会被沉默影响）
-3.普通攻击，耗费一个Step2AP；CD0;（这一条会因英雄不同而不同）
-英雄技能：
-1.按效果分类：（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>具体技能效果结算参照Settle页，技能效果参照本页：技能效果</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）
-①伤害②控制③位移
-2.消耗：
-①AP②Step③CD
-技能的CD按照回合来计算，当结算阶段结束后使当前技能剩余CD-1。当刚使用完技能时其剩余CD时间刷新为其最大CD时间
-3.技能的时序拆分
-①前摇②生效③后摇
-前摇阶段是技能生效的准备，其后是真正发挥效果的阶段，最后阶段是收招阶段。①③阶段都是使用技能时的脆弱时间，不同的技能不同阶段持续的step数不同；
-4.范围：技能的范围分触发器（Trigger）范围和效果（Effect）范围，这些范围都在技能配置里面直接配置，是一个二维的数组；
-5.触发条件：这个条件决定了接下来的阶段是否使技能生效；
-这里分两个触发条件（因为本质上技能释放的时间和技能效果生效的时间很可能不是一个时间，因此要分两阶段）：一个是触发器的，决定了此触发器对应的buff效果是否可能会挂载到某英雄身上；另一个是buff的触发条件，这决定了被挂载了这个buff英雄是否会在此刻受到这个buff的影响；</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -806,10 +765,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>不同的地形决定了当英雄站立在上面时的不同交互；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>isVulnerable</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -868,21 +823,79 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>MovingPoint_Max</t>
+  </si>
+  <si>
+    <t>是否中毒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>处于中毒状态的英雄：每回合扣一点HP，同时移除一层中毒标记，直到中毒标记消失，中毒效果消除</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPoisioned</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>基础技能：（每个英雄都有的一类技能）
+1.四方向移动，每次移动一格，每次消耗1Step1AP；CD0; （不会被沉默影响）
+2.存储/拾取水晶，每次消耗2Step1AP；CD1; （不会被沉默影响）
+3.普通攻击，耗费一个Step2AP；CD0;（这一条会因英雄不同而不同）
+英雄技能：
+1.按效果分类：（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>具体技能效果结算参照Settle页，技能效果参照本页：技能效果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）
+①伤害②控制③位移
+2.消耗：
+①AP②Step③CD
+技能的CD按照回合来计算，当结算阶段结束后使当前技能剩余CD-1。当刚使用完技能时其剩余CD时间刷新为其最大CD时间
+3.技能的时序拆分
+①前摇②生效③后摇
+前摇阶段是技能生效的准备，其后是真正发挥效果的阶段，最后阶段是收招阶段。①③阶段都是使用技能时的脆弱时间，不同的技能不同阶段持续的step数不同；
+4.范围：技能的范围分触发器（Trigger）范围和效果（Effect）范围，这些范围都在技能配置里面直接配置，是一个二维的数组；
+5.触发条件：这个条件决定了接下来的阶段是否使技能生效；
+这里分两个触发条件（因为本质上技能释放的时间和技能效果生效的时间很可能不是一个时间，因此要分两阶段）：一个是触发器的，决定了此触发器对应的buff效果是否可能会挂载到某英雄身上；另一个是buff的触发条件，这决定了被挂载了这个buff英雄是否会在此刻受到这个buff的影响；</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>MovingPoint</t>
-  </si>
-  <si>
-    <t>MovingPoint_Max</t>
-  </si>
-  <si>
-    <t>是否中毒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>处于中毒状态的英雄：每回合扣一点HP，同时移除一层中毒标记，直到中毒标记消失，中毒效果消除</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>isPoisioned</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动效果满足则</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -907,23 +920,19 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">，会直接会给攻击方以等于所受伤害数量的水晶
+      <t>，会直接会给攻击方以等于所受伤害数量的水晶
 2.基地中若无水晶，则攻击它并不会获得水晶
 3.攻击己方水晶无效
-</t>
+4.基地可以有庇护效果，但无其他特殊效果
+5.基地只会被普通攻击造成伤害</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4.基地庇护：
-①基地默认拥有一层庇护：抵挡一次伤害
-②当基地受到一次伤害后后，在下一个重置阶段，重新为自己生成一层庇护</t>
-    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同的地形决定了当英雄站立在上面时的不同交互；
+1.空地：允许玩家自由行动
+2.障碍物：玩家不可踩在其上；障碍物不会阻挡技能效果的发挥
+3.尖刺陷阱：玩家可以踩在上面，但是需要扣1点血</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1102,7 +1111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1176,6 +1185,9 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1201,7 +1213,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1511,11 +1526,11 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1555,7 +1570,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="13" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1566,7 +1581,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="9" t="s">
         <v>65</v>
       </c>
@@ -1574,26 +1589,26 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="202.8" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
+    <row r="4" spans="1:8" ht="231" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
       <c r="C4" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="13" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="13" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="26"/>
       <c r="C5" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="25"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="9" t="s">
         <v>63</v>
       </c>
@@ -1602,10 +1617,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
+      <c r="B7" s="26"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="25"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="9" t="s">
         <v>67</v>
       </c>
@@ -1614,7 +1629,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="25"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="9" t="s">
         <v>68</v>
       </c>
@@ -1623,7 +1638,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="16" t="s">
         <v>69</v>
       </c>
@@ -1632,7 +1647,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="9" t="s">
         <v>76</v>
       </c>
@@ -1641,33 +1656,33 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="183.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="25"/>
+      <c r="B13" s="26"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="25"/>
+      <c r="B14" s="26"/>
     </row>
     <row r="15" spans="1:8" ht="379.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="26" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="9" t="s">
         <v>73</v>
       </c>
@@ -1676,24 +1691,24 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
+      <c r="B17" s="26"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
+      <c r="B18" s="26"/>
     </row>
     <row r="19" spans="2:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="26" t="s">
         <v>55</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="9" t="s">
         <v>58</v>
       </c>
@@ -1702,7 +1717,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" s="14" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="26" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -1713,7 +1728,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="25"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="9" t="s">
         <v>59</v>
       </c>
@@ -1722,16 +1737,16 @@
       </c>
     </row>
     <row r="23" spans="2:4" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="25"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="25"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="9" t="s">
         <v>61</v>
       </c>
@@ -1740,12 +1755,12 @@
       </c>
     </row>
     <row r="25" spans="2:4" ht="281.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="9" t="s">
         <v>104</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1769,7 +1784,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1807,7 +1822,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>95</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1816,48 +1831,48 @@
       <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="28"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="28"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
@@ -1872,34 +1887,34 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="28"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="29"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="18" t="s">
         <v>4</v>
       </c>
@@ -1908,11 +1923,11 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -1927,7 +1942,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="11" t="s">
         <v>88</v>
       </c>
@@ -1940,7 +1955,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="11" t="s">
         <v>89</v>
       </c>
@@ -1953,7 +1968,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="11" t="s">
         <v>90</v>
       </c>
@@ -1966,7 +1981,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="11" t="s">
         <v>91</v>
       </c>
@@ -1979,7 +1994,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="11" t="s">
         <v>92</v>
       </c>
@@ -1992,7 +2007,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="11" t="s">
         <v>93</v>
       </c>
@@ -2003,7 +2018,7 @@
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="11" t="s">
         <v>94</v>
       </c>
@@ -2014,7 +2029,7 @@
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11">
         <v>9</v>
@@ -2025,7 +2040,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11">
         <v>10</v>
@@ -2036,7 +2051,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11">
         <v>11</v>
@@ -2047,7 +2062,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="27" t="s">
         <v>98</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -2067,7 +2082,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="7" t="s">
         <v>97</v>
       </c>
@@ -2085,19 +2100,19 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
+      <c r="A23" s="27"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
+      <c r="A24" s="27"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -2107,12 +2122,12 @@
         <v>0</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="7" t="s">
         <v>21</v>
       </c>
@@ -2120,10 +2135,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="28"/>
+      <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="7" t="s">
         <v>19</v>
       </c>
@@ -2131,10 +2146,10 @@
         <v>2</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="28"/>
+      <c r="E29" s="29"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="7" t="s">
         <v>22</v>
       </c>
@@ -2142,14 +2157,14 @@
         <v>3</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="28"/>
+      <c r="E30" s="29"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
+      <c r="A31" s="27"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="27" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -2159,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="28"/>
+      <c r="E32" s="29"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="7" t="s">
         <v>24</v>
       </c>
@@ -2170,10 +2185,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="28"/>
+      <c r="E33" s="29"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="27" t="s">
         <v>99</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -2185,7 +2200,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="8" t="s">
         <v>45</v>
       </c>
@@ -2195,7 +2210,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="27" t="s">
         <v>85</v>
       </c>
       <c r="B38" s="18" t="s">
@@ -2210,7 +2225,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="18" t="s">
         <v>101</v>
       </c>
@@ -2220,52 +2235,52 @@
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
+      <c r="A40" s="27"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
+      <c r="A42" s="28"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
+      <c r="A43" s="28"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
+      <c r="A44" s="28"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
+      <c r="A45" s="28"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
+      <c r="A46" s="28"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
+      <c r="A47" s="28"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
+      <c r="A48" s="28"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
+      <c r="A49" s="28"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
+      <c r="A50" s="28"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
+      <c r="A51" s="28"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
+      <c r="A52" s="28"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
+      <c r="A53" s="28"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
+      <c r="A54" s="28"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
+      <c r="A55" s="28"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
+      <c r="A56" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2313,18 +2328,18 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="14" t="s">
         <v>35</v>
       </c>
@@ -2333,7 +2348,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="14" t="s">
         <v>42</v>
       </c>
@@ -2342,7 +2357,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="14" t="s">
         <v>43</v>
       </c>
@@ -2351,67 +2366,67 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="14" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
     </row>
     <row r="9" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+      <c r="A9" s="32"/>
     </row>
     <row r="10" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
     </row>
     <row r="11" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
     </row>
     <row r="12" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
     </row>
     <row r="13" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
+      <c r="A13" s="32"/>
     </row>
     <row r="14" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
     </row>
     <row r="15" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
     </row>
     <row r="16" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
     </row>
     <row r="17" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
+      <c r="A17" s="32"/>
     </row>
     <row r="18" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
+      <c r="A18" s="32"/>
     </row>
     <row r="19" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
+      <c r="A19" s="32"/>
     </row>
     <row r="20" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
+      <c r="A20" s="32"/>
     </row>
     <row r="21" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
+      <c r="A21" s="32"/>
     </row>
     <row r="22" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
+      <c r="A22" s="32"/>
     </row>
     <row r="23" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
+      <c r="A23" s="32"/>
     </row>
     <row r="24" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
+      <c r="A24" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2425,155 +2440,258 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="33"/>
-    <col min="2" max="2" width="74.6640625" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="25"/>
+    <col min="3" max="3" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="32"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
+      <c r="B2" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>7</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
+        <v>8</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>9</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
+        <v>10</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
+        <v>11</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <v>1</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <v>2</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
+        <v>3</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="B17" s="34"/>
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="B18" s="34"/>
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
+      <c r="B19" s="34"/>
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <v>8</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
+        <v>9</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <v>10</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
+        <v>11</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="25">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="C2:C12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2615,10 +2733,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>123</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -2626,120 +2744,120 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="14" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
     </row>
     <row r="7" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="26" t="s">
         <v>125</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="14" t="s">
         <v>114</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="20" t="s">
         <v>115</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
+      <c r="E11" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="12" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>

--- a/Assets/Docs/Design/Eternal War GDC.xlsx
+++ b/Assets/Docs/Design/Eternal War GDC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Core system" sheetId="3" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Buff" sheetId="2" r:id="rId3"/>
     <sheet name="Settle" sheetId="5" r:id="rId4"/>
     <sheet name="Stats" sheetId="6" r:id="rId5"/>
+    <sheet name="词缀效果" sheetId="7" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="170">
   <si>
     <t>Name</t>
   </si>
@@ -315,13 +316,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">直接伤害：降低敌方HP
-眩晕：
-减速：
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>定义：
 某些英雄的技能会在战场创造新单位，被称为该英雄的召唤物；本质上召唤物属于英雄类，但是不会被玩家直接控制；</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -356,9 +350,6 @@
   </si>
   <si>
     <t>Step（Step）</t>
-  </si>
-  <si>
-    <t>英雄释放技能或者移动被称为行动，使用行动消耗AP与Step（时间）</t>
   </si>
   <si>
     <t>WinType
@@ -495,10 +486,6 @@
   </si>
   <si>
     <t>起始设置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.设置英雄出生位置：玩家逐一选择三个英雄分布在允许的出生位置（这个位置是每个地图预先配置好的）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -669,20 +656,6 @@
   </si>
   <si>
     <t>是否减速</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一些值获得固定提升：
-1.双方玩家的AP_Max++;
-在重置阶段，恢复一些值到初始值：
-1.双方玩家恢复自己的当前AP到AP_Max；
-2.所有英雄的待冷却技能的CD-1；
-3.所有依据回合存在的单位或者是Trigger\按回合持续的Buff剩余的存在时间-1；
-4.重置所有过期的特殊状态到正常状态
-可拾取物品刷新：
-生成一个AP可拾取物，拾取的玩家获得AP_Max的增加，到设置的位置；如果设置的位置此时已经被任意单位占据，则不会再生成这个拾取物；
-生成一个水晶，到设置的位置；如果设置的位置此时已经被任意单位占据，则不会再生成这个拾取物；
-英雄复活：</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -838,8 +811,133 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>基础技能：（每个英雄都有的一类技能）
+    <t>MovingPoint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.基地是用于储存水晶的，如果成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>受到伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，会直接会给攻击方以等于所受伤害数量的水晶
+2.基地中若无水晶，则攻击它并不会获得水晶
+3.攻击己方水晶无效
+4.基地可以有庇护效果，但无其他特殊效果
+5.基地只会被普通攻击造成伤害</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动效果满足则发动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉默</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">不同的地形决定了当英雄站立在上面时的不同交互；
+1.空地：允许玩家自由行动
+2.障碍物：玩家不可踩在其上；障碍物不会阻挡技能效果的发挥
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.尖刺陷阱：
+①单位可以踩在刺出的尖刺上面，会被扣1点血，然后尖刺收回；
+②单位持续站在尖刺上，尖刺不会再刺出，而是等待单位离开之后的第3个Step后才会重新刺出；</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>见词缀效果页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄可由玩家操控的的任何操作被称为行动，行动消耗AP与Step（时间）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>基础行动：（每个英雄都有的一类行动，不算作技能，因此不会被沉默所影响）
 1.四方向移动，每次移动一格，每次消耗1Step1AP；CD0; （不会被沉默影响）
 2.存储/拾取水晶，每次消耗2Step1AP；CD1; （不会被沉默影响）
 3.普通攻击，耗费一个Step2AP；CD0;（这一条会因英雄不同而不同）
@@ -879,60 +977,22 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>MovingPoint</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动效果满足则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.基地是用于储存水晶的，如果成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>受到伤害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，会直接会给攻击方以等于所受伤害数量的水晶
-2.基地中若无水晶，则攻击它并不会获得水晶
-3.攻击己方水晶无效
-4.基地可以有庇护效果，但无其他特殊效果
-5.基地只会被普通攻击造成伤害</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同的地形决定了当英雄站立在上面时的不同交互；
-1.空地：允许玩家自由行动
-2.障碍物：玩家不可踩在其上；障碍物不会阻挡技能效果的发挥
-3.尖刺陷阱：玩家可以踩在上面，但是需要扣1点血</t>
+    <t>1.设置英雄出生位置（=出生位置）：玩家逐一选择三个英雄分布在允许的出生位置（这个位置是每个地图预先配置好的）；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些值获得固定提升：
+1.双方玩家的AP_Max++;
+在重置阶段，恢复一些值到初始值：
+1.双方玩家恢复自己的当前AP到AP_Max；
+2.所有英雄的待冷却技能的CD-1；
+3.所有依据回合存在的单位或者是Trigger\按回合持续的Buff剩余的存在时间-1；
+4.重置所有过期的特殊状态到正常状态
+可拾取物品刷新：
+1.生成一个AP可拾取物，拾取的玩家获得AP_Max的增加，到设置的位置；如果设置的位置此时已经被任意单位占据，则不会再生成这个拾取物；
+2.生成一个水晶，到设置的位置；如果设置的位置此时已经被任意单位占据，则不会再生成这个拾取物；
+英雄复活：
+1.死亡的英雄会在这个阶段复活，但是会使其所有技能进入最大CD；复活的英雄随机刷新在出生位置；</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -940,7 +1000,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1053,8 +1113,26 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1097,6 +1175,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1111,7 +1195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1216,8 +1300,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="差" xfId="1" builtinId="27" customBuiltin="1"/>
@@ -1234,6 +1323,58 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="525780" y="160020"/>
+          <a:ext cx="0" cy="2705100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1525,12 +1666,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1574,10 +1715,10 @@
         <v>64</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1586,16 +1727,16 @@
         <v>65</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="231" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
       <c r="C4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1604,7 +1745,7 @@
         <v>62</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1613,7 +1754,7 @@
         <v>63</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1634,7 +1775,7 @@
         <v>68</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
@@ -1643,25 +1784,25 @@
         <v>69</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B11" s="26"/>
       <c r="C11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="183.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="26"/>
       <c r="C12" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1678,16 +1819,16 @@
         <v>70</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="26"/>
       <c r="C16" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -1704,7 +1845,7 @@
         <v>57</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1713,7 +1854,7 @@
         <v>58</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="14" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1721,10 +1862,10 @@
         <v>56</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1733,7 +1874,7 @@
         <v>59</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1742,7 +1883,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -1751,16 +1892,16 @@
         <v>61</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="281.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
       <c r="C25" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1781,10 +1922,10 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1823,7 +1964,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>5</v>
@@ -1863,7 +2004,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
@@ -1923,15 +2064,15 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1944,7 +2085,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C11" s="11">
         <v>2</v>
@@ -1957,7 +2098,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" s="11">
         <v>3</v>
@@ -1970,7 +2111,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="11">
         <v>4</v>
@@ -1983,7 +2124,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C14" s="11">
         <v>5</v>
@@ -1996,7 +2137,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C15" s="11">
         <v>6</v>
@@ -2009,7 +2150,7 @@
     <row r="16" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C16" s="11">
         <v>7</v>
@@ -2020,7 +2161,7 @@
     <row r="17" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C17" s="11">
         <v>8</v>
@@ -2063,7 +2204,7 @@
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>34</v>
@@ -2084,7 +2225,7 @@
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
@@ -2189,7 +2330,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>44</v>
@@ -2211,23 +2352,23 @@
     </row>
     <row r="38" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -2329,10 +2470,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>39</v>
@@ -2368,13 +2509,13 @@
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2440,10 +2581,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2460,241 +2601,111 @@
       <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
-        <v>1</v>
+      <c r="A2" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>161</v>
+        <v>153</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
-        <v>2</v>
-      </c>
+      <c r="A3" s="34"/>
       <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="C3" s="35"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
-        <v>3</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="36" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
-        <v>4</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
-        <v>5</v>
-      </c>
+      <c r="A6" s="34"/>
       <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
-        <v>6</v>
-      </c>
+      <c r="A7" s="34"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="C7" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
-        <v>7</v>
-      </c>
+      <c r="A8" s="34"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
-        <v>8</v>
-      </c>
+      <c r="A9" s="34"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
-        <v>9</v>
-      </c>
+      <c r="A10" s="34"/>
       <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
-        <v>10</v>
-      </c>
+      <c r="A11" s="34"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
-        <v>11</v>
-      </c>
+      <c r="A12" s="34"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="35" t="s">
-        <v>158</v>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
-        <v>1</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>160</v>
-      </c>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
       <c r="C14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
-        <v>2</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
-        <v>3</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
-        <v>4</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
-        <v>5</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
-        <v>6</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
-        <v>7</v>
-      </c>
-      <c r="B20" s="34"/>
-      <c r="C20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
-        <v>8</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
-        <v>9</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
-        <v>10</v>
-      </c>
-      <c r="B23" s="34"/>
-      <c r="C23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
-        <v>11</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="C2:C12"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A2:A14"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2702,8 +2713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2717,30 +2728,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="21" t="s">
         <v>81</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2754,14 +2765,14 @@
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
       <c r="C5" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2769,84 +2780,84 @@
     </row>
     <row r="7" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2881,4 +2892,61 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="91.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="37" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>